--- a/statistics/R/roiHumanBody_Within-PLI_gamma_B/roiHumanBody_Within-PLI_gamma_B.xlsx
+++ b/statistics/R/roiHumanBody_Within-PLI_gamma_B/roiHumanBody_Within-PLI_gamma_B.xlsx
@@ -104,7 +104,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="0">
-        <v>-0.0042073323323323086</v>
+        <v>-0.0021036661661661543</v>
       </c>
     </row>
     <row r="3">
@@ -118,7 +118,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="0">
-        <v>0.016345999679333006</v>
+        <v>0.0081729998396665032</v>
       </c>
     </row>
     <row r="4">
@@ -132,7 +132,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="0">
-        <v>-0.0024472154453178963</v>
+        <v>-0.0012236077226589481</v>
       </c>
     </row>
     <row r="5">
@@ -146,7 +146,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="0">
-        <v>0.028495842781557118</v>
+        <v>0.014247921390778559</v>
       </c>
     </row>
     <row r="6">
@@ -160,7 +160,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="0">
-        <v>0.027652588813303097</v>
+        <v>0.013826294406651549</v>
       </c>
     </row>
     <row r="7">
@@ -174,7 +174,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="0">
-        <v>0.012408472160794159</v>
+        <v>0.0062042360803970797</v>
       </c>
     </row>
     <row r="8">
@@ -188,7 +188,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="0">
-        <v>-0.022162568731196153</v>
+        <v>-0.011081284365598076</v>
       </c>
     </row>
     <row r="9">
@@ -202,7 +202,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.0064781468142812437</v>
+        <v>-0.0032390734071406219</v>
       </c>
     </row>
     <row r="10">
@@ -216,7 +216,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="0">
-        <v>-0.026395002445422616</v>
+        <v>-0.013197501222711308</v>
       </c>
     </row>
     <row r="11">
@@ -230,7 +230,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="0">
-        <v>-0.004046062869592304</v>
+        <v>-0.002023031434796152</v>
       </c>
     </row>
     <row r="12">
@@ -244,7 +244,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="0">
-        <v>-0.024354186118892063</v>
+        <v>-0.012177093059446031</v>
       </c>
     </row>
     <row r="13">
@@ -258,7 +258,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="0">
-        <v>-0.018090862075824526</v>
+        <v>-0.0090454310379122632</v>
       </c>
     </row>
     <row r="14">
@@ -272,7 +272,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="0">
-        <v>-0.030509501097736397</v>
+        <v>-0.015254750548868198</v>
       </c>
     </row>
     <row r="15">
@@ -286,7 +286,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="0">
-        <v>-0.027964753152723121</v>
+        <v>-0.01398237657636156</v>
       </c>
     </row>
     <row r="16">
@@ -300,7 +300,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="0">
-        <v>0.021953030724960548</v>
+        <v>0.010976515362480274</v>
       </c>
     </row>
     <row r="17">
@@ -314,7 +314,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="0">
-        <v>0.015075973409306734</v>
+        <v>0.0075379867046533669</v>
       </c>
     </row>
     <row r="18">
@@ -328,7 +328,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="0">
-        <v>-0.042560103963612775</v>
+        <v>-0.021280051981806387</v>
       </c>
     </row>
     <row r="19">
@@ -342,7 +342,7 @@
         <v>3</v>
       </c>
       <c r="D19" s="0">
-        <v>0.011168677835344504</v>
+        <v>0.0055843389176722519</v>
       </c>
     </row>
     <row r="20">
@@ -356,7 +356,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="0">
-        <v>0.034442605871177284</v>
+        <v>0.017221302935588642</v>
       </c>
     </row>
     <row r="21">
@@ -370,7 +370,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="0">
-        <v>-0.00058788947677838876</v>
+        <v>-0.00029394473838919438</v>
       </c>
     </row>
     <row r="22">
@@ -384,7 +384,7 @@
         <v>3</v>
       </c>
       <c r="D22" s="0">
-        <v>-0.01401379265156355</v>
+        <v>-0.0070068963257817751</v>
       </c>
     </row>
     <row r="23">
@@ -398,7 +398,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="0">
-        <v>0.021224146224146256</v>
+        <v>0.010612073112073128</v>
       </c>
     </row>
     <row r="24">
@@ -412,7 +412,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="0">
-        <v>0.025963857765328363</v>
+        <v>0.012981928882664182</v>
       </c>
     </row>
     <row r="25">
@@ -426,7 +426,7 @@
         <v>3</v>
       </c>
       <c r="D25" s="0">
-        <v>0.024014656367597559</v>
+        <v>0.012007328183798779</v>
       </c>
     </row>
     <row r="26">
@@ -440,7 +440,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="0">
-        <v>-0.0009295009295009482</v>
+        <v>-0.0004647504647504741</v>
       </c>
     </row>
     <row r="27">
@@ -454,7 +454,7 @@
         <v>2</v>
       </c>
       <c r="D27" s="0">
-        <v>0.033571333750545246</v>
+        <v>0.016785666875272623</v>
       </c>
     </row>
     <row r="28">
@@ -468,7 +468,7 @@
         <v>3</v>
       </c>
       <c r="D28" s="0">
-        <v>0.0017522160379302987</v>
+        <v>0.00087610801896514934</v>
       </c>
     </row>
     <row r="29">
@@ -482,7 +482,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="0">
-        <v>0.0023031434796141059</v>
+        <v>0.001151571739807053</v>
       </c>
     </row>
     <row r="30">
@@ -496,7 +496,7 @@
         <v>2</v>
       </c>
       <c r="D30" s="0">
-        <v>-0.0057649486220914259</v>
+        <v>-0.0028824743110457129</v>
       </c>
     </row>
     <row r="31">
@@ -510,7 +510,7 @@
         <v>3</v>
       </c>
       <c r="D31" s="0">
-        <v>0.0003733892622781454</v>
+        <v>0.0001866946311390727</v>
       </c>
     </row>
     <row r="32">
@@ -524,7 +524,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="0">
-        <v>0.0016648764769064961</v>
+        <v>0.00083243823845324805</v>
       </c>
     </row>
     <row r="33">
@@ -538,7 +538,7 @@
         <v>2</v>
       </c>
       <c r="D33" s="0">
-        <v>-0.029756010148167006</v>
+        <v>-0.014878005074083503</v>
       </c>
     </row>
     <row r="34">
@@ -552,7 +552,7 @@
         <v>3</v>
       </c>
       <c r="D34" s="0">
-        <v>-0.025675025675025664</v>
+        <v>-0.012837512837512832</v>
       </c>
     </row>
     <row r="35">
@@ -566,7 +566,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="0">
-        <v>0.01415343915343914</v>
+        <v>0.0070767195767195701</v>
       </c>
     </row>
     <row r="36">
@@ -580,7 +580,7 @@
         <v>2</v>
       </c>
       <c r="D36" s="0">
-        <v>0.0043036659108087738</v>
+        <v>0.0021518329554043869</v>
       </c>
     </row>
     <row r="37">
@@ -594,7 +594,7 @@
         <v>3</v>
       </c>
       <c r="D37" s="0">
-        <v>0.0046968169984042685</v>
+        <v>0.0023484084992021342</v>
       </c>
     </row>
     <row r="38">
@@ -608,7 +608,7 @@
         <v>1</v>
       </c>
       <c r="D38" s="0">
-        <v>0.0066305801599919334</v>
+        <v>0.0033152900799959667</v>
       </c>
     </row>
     <row r="39">
@@ -622,7 +622,7 @@
         <v>2</v>
       </c>
       <c r="D39" s="0">
-        <v>0.0093949260615927288</v>
+        <v>0.0046974630307963644</v>
       </c>
     </row>
     <row r="40">
@@ -636,7 +636,7 @@
         <v>3</v>
       </c>
       <c r="D40" s="0">
-        <v>0.013796506256823632</v>
+        <v>0.0068982531284118159</v>
       </c>
     </row>
     <row r="41">
@@ -650,7 +650,7 @@
         <v>1</v>
       </c>
       <c r="D41" s="0">
-        <v>-0.026743318409985034</v>
+        <v>-0.013371659204992517</v>
       </c>
     </row>
     <row r="42">
@@ -664,7 +664,7 @@
         <v>2</v>
       </c>
       <c r="D42" s="0">
-        <v>-0.013548242119670706</v>
+        <v>-0.006774121059835353</v>
       </c>
     </row>
     <row r="43">
@@ -678,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="D43" s="0">
-        <v>0.0001653439153438685</v>
+        <v>8.2671957671934249e-05</v>
       </c>
     </row>
     <row r="44">
@@ -692,7 +692,7 @@
         <v>1</v>
       </c>
       <c r="D44" s="0">
-        <v>0.010892656725990019</v>
+        <v>0.0054463283629950093</v>
       </c>
     </row>
     <row r="45">
@@ -706,7 +706,7 @@
         <v>2</v>
       </c>
       <c r="D45" s="0">
-        <v>0.0047375222490430302</v>
+        <v>0.0023687611245215151</v>
       </c>
     </row>
     <row r="46">
@@ -720,7 +720,7 @@
         <v>3</v>
       </c>
       <c r="D46" s="0">
-        <v>0.0091248620660385749</v>
+        <v>0.0045624310330192874</v>
       </c>
     </row>
     <row r="47">
@@ -734,7 +734,7 @@
         <v>1</v>
       </c>
       <c r="D47" s="0">
-        <v>-0.013177122700932242</v>
+        <v>-0.0065885613504661211</v>
       </c>
     </row>
     <row r="48">
@@ -748,7 +748,7 @@
         <v>2</v>
       </c>
       <c r="D48" s="0">
-        <v>-0.028487489271803002</v>
+        <v>-0.014243744635901501</v>
       </c>
     </row>
     <row r="49">
@@ -762,7 +762,7 @@
         <v>3</v>
       </c>
       <c r="D49" s="0">
-        <v>0.0044478480150994815</v>
+        <v>0.0022239240075497407</v>
       </c>
     </row>
     <row r="50">
@@ -776,7 +776,7 @@
         <v>1</v>
       </c>
       <c r="D50" s="0">
-        <v>-0.011809168111689153</v>
+        <v>-0.0059045840558445764</v>
       </c>
     </row>
     <row r="51">
@@ -790,7 +790,7 @@
         <v>2</v>
       </c>
       <c r="D51" s="0">
-        <v>-0.0073099415204678497</v>
+        <v>-0.0036549707602339249</v>
       </c>
     </row>
     <row r="52">
@@ -804,7 +804,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="0">
-        <v>0.0092092092092092293</v>
+        <v>0.0046046046046046146</v>
       </c>
     </row>
     <row r="53">
@@ -818,7 +818,7 @@
         <v>1</v>
       </c>
       <c r="D53" s="0">
-        <v>0.037459428215730728</v>
+        <v>0.018729714107865364</v>
       </c>
     </row>
     <row r="54">
@@ -832,7 +832,7 @@
         <v>2</v>
       </c>
       <c r="D54" s="0">
-        <v>0.013277166054943834</v>
+        <v>0.0066385830274719171</v>
       </c>
     </row>
     <row r="55">
@@ -846,7 +846,7 @@
         <v>3</v>
       </c>
       <c r="D55" s="0">
-        <v>-0.0034369303276866603</v>
+        <v>-0.0017184651638433301</v>
       </c>
     </row>
     <row r="56">
@@ -860,7 +860,7 @@
         <v>1</v>
       </c>
       <c r="D56" s="0">
-        <v>0.0036646994980328029</v>
+        <v>0.0018323497490164015</v>
       </c>
     </row>
     <row r="57">
@@ -874,7 +874,7 @@
         <v>2</v>
       </c>
       <c r="D57" s="0">
-        <v>-0.0080757449178501806</v>
+        <v>-0.0040378724589250903</v>
       </c>
     </row>
     <row r="58">
@@ -888,7 +888,7 @@
         <v>3</v>
       </c>
       <c r="D58" s="0">
-        <v>-0.031317031317031285</v>
+        <v>-0.015658515658515643</v>
       </c>
     </row>
     <row r="59">
@@ -902,7 +902,7 @@
         <v>1</v>
       </c>
       <c r="D59" s="0">
-        <v>-0.0055716430716430676</v>
+        <v>-0.0027858215358215338</v>
       </c>
     </row>
     <row r="60">
@@ -916,7 +916,7 @@
         <v>2</v>
       </c>
       <c r="D60" s="0">
-        <v>-0.019246031746031789</v>
+        <v>-0.0096230158730158943</v>
       </c>
     </row>
     <row r="61">
@@ -930,7 +930,7 @@
         <v>3</v>
       </c>
       <c r="D61" s="0">
-        <v>-0.024306968751413222</v>
+        <v>-0.012153484375706611</v>
       </c>
     </row>
     <row r="62">
@@ -944,7 +944,7 @@
         <v>1</v>
       </c>
       <c r="D62" s="0">
-        <v>-0.022483202307763711</v>
+        <v>-0.011241601153881856</v>
       </c>
     </row>
     <row r="63">
@@ -958,7 +958,7 @@
         <v>2</v>
       </c>
       <c r="D63" s="0">
-        <v>0.026326337729846522</v>
+        <v>0.013163168864923261</v>
       </c>
     </row>
     <row r="64">
@@ -972,7 +972,7 @@
         <v>3</v>
       </c>
       <c r="D64" s="0">
-        <v>0.0096872382586668804</v>
+        <v>0.0048436191293334402</v>
       </c>
     </row>
     <row r="65">
@@ -986,7 +986,7 @@
         <v>1</v>
       </c>
       <c r="D65" s="0">
-        <v>0.013068385248836398</v>
+        <v>0.0065341926244181989</v>
       </c>
     </row>
     <row r="66">
@@ -1000,7 +1000,7 @@
         <v>2</v>
       </c>
       <c r="D66" s="0">
-        <v>0.029471827717441723</v>
+        <v>0.014735913858720862</v>
       </c>
     </row>
     <row r="67">
@@ -1014,7 +1014,7 @@
         <v>3</v>
       </c>
       <c r="D67" s="0">
-        <v>0.0045448378781711984</v>
+        <v>0.0022724189390855992</v>
       </c>
     </row>
     <row r="68">
@@ -1028,7 +1028,7 @@
         <v>1</v>
       </c>
       <c r="D68" s="0">
-        <v>0.00042306621253995758</v>
+        <v>0.00021153310626997879</v>
       </c>
     </row>
     <row r="69">
@@ -1042,7 +1042,7 @@
         <v>2</v>
       </c>
       <c r="D69" s="0">
-        <v>-0.0010832260832260854</v>
+        <v>-0.00054161304161304269</v>
       </c>
     </row>
     <row r="70">
@@ -1056,7 +1056,7 @@
         <v>3</v>
       </c>
       <c r="D70" s="0">
-        <v>0.0030040378724588979</v>
+        <v>0.0015020189362294489</v>
       </c>
     </row>
     <row r="71">
@@ -1070,7 +1070,7 @@
         <v>1</v>
       </c>
       <c r="D71" s="0">
-        <v>-0.03710317460317461</v>
+        <v>-0.018551587301587305</v>
       </c>
     </row>
     <row r="72">
@@ -1084,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="D72" s="0">
-        <v>0.017670601003934278</v>
+        <v>0.0088353005019671388</v>
       </c>
     </row>
     <row r="73">
@@ -1098,7 +1098,7 @@
         <v>3</v>
       </c>
       <c r="D73" s="0">
-        <v>0.01489300173510702</v>
+        <v>0.0074465008675535099</v>
       </c>
     </row>
     <row r="74">
@@ -1112,7 +1112,7 @@
         <v>1</v>
       </c>
       <c r="D74" s="0">
-        <v>-0.00073906105652138399</v>
+        <v>-0.00036953052826069199</v>
       </c>
     </row>
     <row r="75">
@@ -1126,7 +1126,7 @@
         <v>2</v>
       </c>
       <c r="D75" s="0">
-        <v>-0.008156966490299844</v>
+        <v>-0.004078483245149922</v>
       </c>
     </row>
     <row r="76">
@@ -1140,7 +1140,7 @@
         <v>3</v>
       </c>
       <c r="D76" s="0">
-        <v>-0.025429511143796824</v>
+        <v>-0.012714755571898412</v>
       </c>
     </row>
     <row r="77">
@@ -1154,7 +1154,7 @@
         <v>1</v>
       </c>
       <c r="D77" s="0">
-        <v>0.0027569586393116075</v>
+        <v>0.0013784793196558037</v>
       </c>
     </row>
     <row r="78">
@@ -1168,7 +1168,7 @@
         <v>2</v>
       </c>
       <c r="D78" s="0">
-        <v>-0.020091520091520126</v>
+        <v>-0.010045760045760063</v>
       </c>
     </row>
     <row r="79">
@@ -1182,7 +1182,7 @@
         <v>3</v>
       </c>
       <c r="D79" s="0">
-        <v>-0.014964459408903868</v>
+        <v>-0.0074822297044519342</v>
       </c>
     </row>
     <row r="80">
@@ -1196,7 +1196,7 @@
         <v>1</v>
       </c>
       <c r="D80" s="0">
-        <v>0.028359528359528346</v>
+        <v>0.014179764179764173</v>
       </c>
     </row>
     <row r="81">
@@ -1210,7 +1210,7 @@
         <v>2</v>
       </c>
       <c r="D81" s="0">
-        <v>-0.033755978200422573</v>
+        <v>-0.016877989100211287</v>
       </c>
     </row>
     <row r="82">
@@ -1224,7 +1224,7 @@
         <v>3</v>
       </c>
       <c r="D82" s="0">
-        <v>-0.010056888252376939</v>
+        <v>-0.0050284441261884694</v>
       </c>
     </row>
     <row r="83">
@@ -1238,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="D83" s="0">
-        <v>-0.026831342620816281</v>
+        <v>-0.013415671310408141</v>
       </c>
     </row>
     <row r="84">
@@ -1252,7 +1252,7 @@
         <v>2</v>
       </c>
       <c r="D84" s="0">
-        <v>0.015931962010393375</v>
+        <v>0.0079659810051966873</v>
       </c>
     </row>
     <row r="85">
@@ -1266,7 +1266,7 @@
         <v>3</v>
       </c>
       <c r="D85" s="0">
-        <v>-0.0015659825183634846</v>
+        <v>-0.00078299125918174228</v>
       </c>
     </row>
     <row r="86">
@@ -1280,7 +1280,7 @@
         <v>1</v>
       </c>
       <c r="D86" s="0">
-        <v>0.020067686734353329</v>
+        <v>0.010033843367176665</v>
       </c>
     </row>
     <row r="87">
@@ -1294,7 +1294,7 @@
         <v>2</v>
       </c>
       <c r="D87" s="0">
-        <v>0.058921609579504319</v>
+        <v>0.02946080478975216</v>
       </c>
     </row>
     <row r="88">
@@ -1308,7 +1308,7 @@
         <v>3</v>
       </c>
       <c r="D88" s="0">
-        <v>-0.011064177730844338</v>
+        <v>-0.0055320888654221689</v>
       </c>
     </row>
     <row r="89">
@@ -1322,7 +1322,7 @@
         <v>1</v>
       </c>
       <c r="D89" s="0">
-        <v>0.027777777777777762</v>
+        <v>0.013888888888888881</v>
       </c>
     </row>
     <row r="90">
@@ -1336,7 +1336,7 @@
         <v>2</v>
       </c>
       <c r="D90" s="0">
-        <v>-0.010352343685677029</v>
+        <v>-0.0051761718428385145</v>
       </c>
     </row>
     <row r="91">
@@ -1350,7 +1350,7 @@
         <v>3</v>
       </c>
       <c r="D91" s="0">
-        <v>0.01654303696787357</v>
+        <v>0.008271518483936785</v>
       </c>
     </row>
     <row r="92">
@@ -1364,7 +1364,7 @@
         <v>1</v>
       </c>
       <c r="D92" s="0">
-        <v>0.024470899470899476</v>
+        <v>0.012235449735449738</v>
       </c>
     </row>
     <row r="93">
@@ -1378,7 +1378,7 @@
         <v>2</v>
       </c>
       <c r="D93" s="0">
-        <v>0.011610375144209734</v>
+        <v>0.0058051875721048668</v>
       </c>
     </row>
     <row r="94">
@@ -1392,7 +1392,7 @@
         <v>3</v>
       </c>
       <c r="D94" s="0">
-        <v>-0.055555555555555497</v>
+        <v>-0.027777777777777748</v>
       </c>
     </row>
     <row r="95">
@@ -1406,7 +1406,7 @@
         <v>1</v>
       </c>
       <c r="D95" s="0">
-        <v>0.0076028409361742766</v>
+        <v>0.0038014204680871383</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>2</v>
       </c>
       <c r="D96" s="0">
-        <v>-0.008794508794508854</v>
+        <v>-0.004397254397254427</v>
       </c>
     </row>
     <row r="97">
@@ -1434,7 +1434,7 @@
         <v>3</v>
       </c>
       <c r="D97" s="0">
-        <v>-0.013422152311041186</v>
+        <v>-0.0067110761555205928</v>
       </c>
     </row>
     <row r="98">
@@ -1448,7 +1448,7 @@
         <v>1</v>
       </c>
       <c r="D98" s="0">
-        <v>-0.018332869210062219</v>
+        <v>-0.0091664346050311096</v>
       </c>
     </row>
     <row r="99">
@@ -1462,7 +1462,7 @@
         <v>2</v>
       </c>
       <c r="D99" s="0">
-        <v>0.012869475275490316</v>
+        <v>0.0064347376377451582</v>
       </c>
     </row>
     <row r="100">
@@ -1476,7 +1476,7 @@
         <v>3</v>
       </c>
       <c r="D100" s="0">
-        <v>0.044601791333817503</v>
+        <v>0.022300895666908752</v>
       </c>
     </row>
     <row r="101">
@@ -1490,7 +1490,7 @@
         <v>1</v>
       </c>
       <c r="D101" s="0">
-        <v>-0.030732413085354224</v>
+        <v>-0.015366206542677112</v>
       </c>
     </row>
     <row r="102">
@@ -1504,7 +1504,7 @@
         <v>2</v>
       </c>
       <c r="D102" s="0">
-        <v>-0.0040354413370286002</v>
+        <v>-0.0020177206685143001</v>
       </c>
     </row>
     <row r="103">
@@ -1518,7 +1518,7 @@
         <v>3</v>
       </c>
       <c r="D103" s="0">
-        <v>-0.041410514823213271</v>
+        <v>-0.020705257411606635</v>
       </c>
     </row>
     <row r="104">
@@ -1532,7 +1532,7 @@
         <v>1</v>
       </c>
       <c r="D104" s="0">
-        <v>0.023990089863105732</v>
+        <v>0.011995044931552866</v>
       </c>
     </row>
     <row r="105">
@@ -1546,7 +1546,7 @@
         <v>2</v>
       </c>
       <c r="D105" s="0">
-        <v>-0.015969708221170165</v>
+        <v>-0.0079848541105850823</v>
       </c>
     </row>
     <row r="106">
@@ -1560,7 +1560,7 @@
         <v>3</v>
       </c>
       <c r="D106" s="0">
-        <v>0.031517628739850964</v>
+        <v>0.015758814369925482</v>
       </c>
     </row>
     <row r="107">
@@ -1574,7 +1574,7 @@
         <v>1</v>
       </c>
       <c r="D107" s="0">
-        <v>-0.0079856504005110795</v>
+        <v>-0.0039928252002555398</v>
       </c>
     </row>
     <row r="108">
@@ -1588,7 +1588,7 @@
         <v>2</v>
       </c>
       <c r="D108" s="0">
-        <v>0.021104468723516345</v>
+        <v>0.010552234361758173</v>
       </c>
     </row>
     <row r="109">
@@ -1602,7 +1602,7 @@
         <v>3</v>
       </c>
       <c r="D109" s="0">
-        <v>-0.017665130568356363</v>
+        <v>-0.0088325652841781815</v>
       </c>
     </row>
     <row r="110">
@@ -1616,7 +1616,7 @@
         <v>1</v>
       </c>
       <c r="D110" s="0">
-        <v>0.010395953253096141</v>
+        <v>0.0051979766265480704</v>
       </c>
     </row>
     <row r="111">
@@ -1630,7 +1630,7 @@
         <v>2</v>
       </c>
       <c r="D111" s="0">
-        <v>0.021259981786297594</v>
+        <v>0.010629990893148797</v>
       </c>
     </row>
     <row r="112">
@@ -1644,7 +1644,7 @@
         <v>3</v>
       </c>
       <c r="D112" s="0">
-        <v>0.034306742640075952</v>
+        <v>0.017153371320037976</v>
       </c>
     </row>
     <row r="113">
@@ -1658,7 +1658,7 @@
         <v>1</v>
       </c>
       <c r="D113" s="0">
-        <v>0.0023203013399092087</v>
+        <v>0.0011601506699546044</v>
       </c>
     </row>
     <row r="114">
@@ -1672,7 +1672,7 @@
         <v>2</v>
       </c>
       <c r="D114" s="0">
-        <v>0.0060371727038393969</v>
+        <v>0.0030185863519196984</v>
       </c>
     </row>
     <row r="115">
@@ -1686,7 +1686,7 @@
         <v>3</v>
       </c>
       <c r="D115" s="0">
-        <v>-0.012000355697834697</v>
+        <v>-0.0060001778489173485</v>
       </c>
     </row>
     <row r="116">
@@ -1700,7 +1700,7 @@
         <v>1</v>
       </c>
       <c r="D116" s="0">
-        <v>-0.033353866687199973</v>
+        <v>-0.016676933343599987</v>
       </c>
     </row>
     <row r="117">
@@ -1714,7 +1714,7 @@
         <v>2</v>
       </c>
       <c r="D117" s="0">
-        <v>-0.0031114110061478684</v>
+        <v>-0.0015557055030739342</v>
       </c>
     </row>
     <row r="118">
@@ -1728,7 +1728,7 @@
         <v>3</v>
       </c>
       <c r="D118" s="0">
-        <v>0.02484902484902482</v>
+        <v>0.01242451242451241</v>
       </c>
     </row>
     <row r="119">
@@ -1742,7 +1742,7 @@
         <v>1</v>
       </c>
       <c r="D119" s="0">
-        <v>0.0017958000414141084</v>
+        <v>0.00089790002070705421</v>
       </c>
     </row>
     <row r="120">
@@ -1756,7 +1756,7 @@
         <v>2</v>
       </c>
       <c r="D120" s="0">
-        <v>0.0047131718184349469</v>
+        <v>0.0023565859092174735</v>
       </c>
     </row>
     <row r="121">
@@ -1770,7 +1770,7 @@
         <v>3</v>
       </c>
       <c r="D121" s="0">
-        <v>-0.010253843587176903</v>
+        <v>-0.0051269217935884515</v>
       </c>
     </row>
     <row r="122">
@@ -1784,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="D122" s="0">
-        <v>0.014348381995440807</v>
+        <v>0.0071741909977204033</v>
       </c>
     </row>
     <row r="123">
@@ -1798,7 +1798,7 @@
         <v>2</v>
       </c>
       <c r="D123" s="0">
-        <v>-0.0038488389182833732</v>
+        <v>-0.0019244194591416866</v>
       </c>
     </row>
     <row r="124">
@@ -1812,7 +1812,7 @@
         <v>3</v>
       </c>
       <c r="D124" s="0">
-        <v>0.013370310245310227</v>
+        <v>0.0066851551226551134</v>
       </c>
     </row>
     <row r="125">
@@ -1826,7 +1826,7 @@
         <v>1</v>
       </c>
       <c r="D125" s="0">
-        <v>-0.0075638442511507392</v>
+        <v>-0.0037819221255753696</v>
       </c>
     </row>
     <row r="126">
@@ -1840,7 +1840,7 @@
         <v>2</v>
       </c>
       <c r="D126" s="0">
-        <v>0.0052910052910052907</v>
+        <v>0.0026455026455026454</v>
       </c>
     </row>
     <row r="127">
@@ -1854,7 +1854,7 @@
         <v>3</v>
       </c>
       <c r="D127" s="0">
-        <v>-0.038518677407566274</v>
+        <v>-0.019259338703783137</v>
       </c>
     </row>
     <row r="128">
@@ -1868,7 +1868,7 @@
         <v>1</v>
       </c>
       <c r="D128" s="0">
-        <v>-0.0081589526033969961</v>
+        <v>-0.0040794763016984981</v>
       </c>
     </row>
     <row r="129">
@@ -1882,7 +1882,7 @@
         <v>2</v>
       </c>
       <c r="D129" s="0">
-        <v>-0.0087413944556801737</v>
+        <v>-0.0043706972278400869</v>
       </c>
     </row>
     <row r="130">
@@ -1896,7 +1896,7 @@
         <v>3</v>
       </c>
       <c r="D130" s="0">
-        <v>-0.014173948384474666</v>
+        <v>-0.007086974192237333</v>
       </c>
     </row>
     <row r="131">
@@ -1910,7 +1910,7 @@
         <v>1</v>
       </c>
       <c r="D131" s="0">
-        <v>0.01400851400851405</v>
+        <v>0.0070042570042570251</v>
       </c>
     </row>
     <row r="132">
@@ -1924,7 +1924,7 @@
         <v>2</v>
       </c>
       <c r="D132" s="0">
-        <v>0.013502224028539789</v>
+        <v>0.0067511120142698944</v>
       </c>
     </row>
     <row r="133">
@@ -1938,7 +1938,7 @@
         <v>3</v>
       </c>
       <c r="D133" s="0">
-        <v>-0.0092009025832555102</v>
+        <v>-0.0046004512916277551</v>
       </c>
     </row>
     <row r="134">
@@ -1952,7 +1952,7 @@
         <v>1</v>
       </c>
       <c r="D134" s="0">
-        <v>0.0053625053625053487</v>
+        <v>0.0026812526812526744</v>
       </c>
     </row>
     <row r="135">
@@ -1966,7 +1966,7 @@
         <v>2</v>
       </c>
       <c r="D135" s="0">
-        <v>-0.0039334447229184138</v>
+        <v>-0.0019667223614592069</v>
       </c>
     </row>
     <row r="136">
@@ -1980,7 +1980,7 @@
         <v>3</v>
       </c>
       <c r="D136" s="0">
-        <v>0.012956179622846287</v>
+        <v>0.0064780898114231433</v>
       </c>
     </row>
     <row r="137">
@@ -1994,7 +1994,7 @@
         <v>1</v>
       </c>
       <c r="D137" s="0">
-        <v>-0.010303536619326037</v>
+        <v>-0.0051517683096630185</v>
       </c>
     </row>
     <row r="138">
@@ -2008,7 +2008,7 @@
         <v>2</v>
       </c>
       <c r="D138" s="0">
-        <v>-0.016981556455240701</v>
+        <v>-0.0084907782276203506</v>
       </c>
     </row>
     <row r="139">
@@ -2022,7 +2022,7 @@
         <v>3</v>
       </c>
       <c r="D139" s="0">
-        <v>0.022426079443623306</v>
+        <v>0.011213039721811653</v>
       </c>
     </row>
     <row r="140">
@@ -2036,7 +2036,7 @@
         <v>1</v>
       </c>
       <c r="D140" s="0">
-        <v>-0.0014571221467773454</v>
+        <v>-0.00072856107338867271</v>
       </c>
     </row>
     <row r="141">
@@ -2050,7 +2050,7 @@
         <v>2</v>
       </c>
       <c r="D141" s="0">
-        <v>0.011368511368511358</v>
+        <v>0.0056842556842556791</v>
       </c>
     </row>
     <row r="142">
@@ -2064,7 +2064,7 @@
         <v>3</v>
       </c>
       <c r="D142" s="0">
-        <v>0.005659338992672347</v>
+        <v>0.0028296694963361735</v>
       </c>
     </row>
     <row r="143">
@@ -2078,7 +2078,7 @@
         <v>1</v>
       </c>
       <c r="D143" s="0">
-        <v>-0.0026455026455026315</v>
+        <v>-0.0013227513227513157</v>
       </c>
     </row>
     <row r="144">
@@ -2092,7 +2092,7 @@
         <v>2</v>
       </c>
       <c r="D144" s="0">
-        <v>-0.034187681806729417</v>
+        <v>-0.017093840903364708</v>
       </c>
     </row>
     <row r="145">
@@ -2106,7 +2106,7 @@
         <v>3</v>
       </c>
       <c r="D145" s="0">
-        <v>0.0098156191906192125</v>
+        <v>0.0049078095953096063</v>
       </c>
     </row>
     <row r="146">
@@ -2120,7 +2120,7 @@
         <v>1</v>
       </c>
       <c r="D146" s="0">
-        <v>-0.014132553606237774</v>
+        <v>-0.0070662768031188872</v>
       </c>
     </row>
     <row r="147">
@@ -2134,7 +2134,7 @@
         <v>2</v>
       </c>
       <c r="D147" s="0">
-        <v>0.023932095360666789</v>
+        <v>0.011966047680333394</v>
       </c>
     </row>
     <row r="148">
@@ -2148,7 +2148,7 @@
         <v>3</v>
       </c>
       <c r="D148" s="0">
-        <v>0.0036405134444350562</v>
+        <v>0.0018202567222175281</v>
       </c>
     </row>
     <row r="149">
@@ -2162,7 +2162,7 @@
         <v>1</v>
       </c>
       <c r="D149" s="0">
-        <v>0.0042091836734693688</v>
+        <v>0.0021045918367346844</v>
       </c>
     </row>
     <row r="150">
@@ -2176,7 +2176,7 @@
         <v>2</v>
       </c>
       <c r="D150" s="0">
-        <v>-0.0060484782707004858</v>
+        <v>-0.0030242391353502429</v>
       </c>
     </row>
     <row r="151">
@@ -2190,7 +2190,7 @@
         <v>3</v>
       </c>
       <c r="D151" s="0">
-        <v>-0.0046685340802987696</v>
+        <v>-0.0023342670401493848</v>
       </c>
     </row>
     <row r="152">
@@ -2204,7 +2204,7 @@
         <v>1</v>
       </c>
       <c r="D152" s="0">
-        <v>-0.021346100293468728</v>
+        <v>-0.010673050146734364</v>
       </c>
     </row>
     <row r="153">
@@ -2218,7 +2218,7 @@
         <v>2</v>
       </c>
       <c r="D153" s="0">
-        <v>-0.0061728395061728392</v>
+        <v>-0.0030864197530864196</v>
       </c>
     </row>
     <row r="154">
@@ -2232,7 +2232,7 @@
         <v>3</v>
       </c>
       <c r="D154" s="0">
-        <v>0.0093767236624379552</v>
+        <v>0.0046883618312189776</v>
       </c>
     </row>
     <row r="155">
@@ -2246,7 +2246,7 @@
         <v>1</v>
       </c>
       <c r="D155" s="0">
-        <v>-0.0082225082225082236</v>
+        <v>-0.0041112541112541118</v>
       </c>
     </row>
     <row r="156">
@@ -2260,7 +2260,7 @@
         <v>2</v>
       </c>
       <c r="D156" s="0">
-        <v>-0.0159408492741826</v>
+        <v>-0.0079704246370913001</v>
       </c>
     </row>
     <row r="157">
@@ -2274,7 +2274,7 @@
         <v>3</v>
       </c>
       <c r="D157" s="0">
-        <v>-0.020878020878020917</v>
+        <v>-0.010439010439010458</v>
       </c>
     </row>
     <row r="158">
@@ -2288,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="D158" s="0">
-        <v>-0.018587805492567375</v>
+        <v>-0.0092939027462836873</v>
       </c>
     </row>
     <row r="159">
@@ -2302,7 +2302,7 @@
         <v>2</v>
       </c>
       <c r="D159" s="0">
-        <v>0.0091889124147188639</v>
+        <v>0.0045944562073594319</v>
       </c>
     </row>
     <row r="160">
@@ -2316,7 +2316,7 @@
         <v>3</v>
       </c>
       <c r="D160" s="0">
-        <v>0.014736959181403594</v>
+        <v>0.0073684795907017972</v>
       </c>
     </row>
     <row r="161">
@@ -2330,7 +2330,7 @@
         <v>1</v>
       </c>
       <c r="D161" s="0">
-        <v>-0.0050359032501889611</v>
+        <v>-0.0025179516250944806</v>
       </c>
     </row>
     <row r="162">
@@ -2344,7 +2344,7 @@
         <v>2</v>
       </c>
       <c r="D162" s="0">
-        <v>0.004145027186501879</v>
+        <v>0.0020725135932509395</v>
       </c>
     </row>
     <row r="163">
@@ -2358,7 +2358,7 @@
         <v>3</v>
       </c>
       <c r="D163" s="0">
-        <v>-0.011982570806100212</v>
+        <v>-0.0059912854030501062</v>
       </c>
     </row>
     <row r="164">
@@ -2372,7 +2372,7 @@
         <v>1</v>
       </c>
       <c r="D164" s="0">
-        <v>-0.0045252018936229182</v>
+        <v>-0.0022626009468114591</v>
       </c>
     </row>
     <row r="165">
@@ -2386,7 +2386,7 @@
         <v>2</v>
       </c>
       <c r="D165" s="0">
-        <v>0.015983015983015977</v>
+        <v>0.0079915079915079887</v>
       </c>
     </row>
     <row r="166">
@@ -2400,7 +2400,7 @@
         <v>3</v>
       </c>
       <c r="D166" s="0">
-        <v>0.014192764192764176</v>
+        <v>0.0070963820963820881</v>
       </c>
     </row>
     <row r="167">
@@ -2414,7 +2414,7 @@
         <v>1</v>
       </c>
       <c r="D167" s="0">
-        <v>-0.027962062017789571</v>
+        <v>-0.013981031008894786</v>
       </c>
     </row>
     <row r="168">
@@ -2428,7 +2428,7 @@
         <v>2</v>
       </c>
       <c r="D168" s="0">
-        <v>-0.0088455802741516931</v>
+        <v>-0.0044227901370758466</v>
       </c>
     </row>
     <row r="169">
@@ -2442,7 +2442,7 @@
         <v>3</v>
       </c>
       <c r="D169" s="0">
-        <v>0.0099385099385099485</v>
+        <v>0.0049692549692549742</v>
       </c>
     </row>
     <row r="170">
@@ -2456,7 +2456,7 @@
         <v>1</v>
       </c>
       <c r="D170" s="0">
-        <v>0.015104390104390159</v>
+        <v>0.0075521950521950793</v>
       </c>
     </row>
     <row r="171">
@@ -2470,7 +2470,7 @@
         <v>2</v>
       </c>
       <c r="D171" s="0">
-        <v>0.0065458315458315208</v>
+        <v>0.0032729157729157604</v>
       </c>
     </row>
     <row r="172">
@@ -2484,7 +2484,7 @@
         <v>3</v>
       </c>
       <c r="D172" s="0">
-        <v>-0.0012393345726679078</v>
+        <v>-0.0006196672863339539</v>
       </c>
     </row>
     <row r="173">
@@ -2498,7 +2498,7 @@
         <v>1</v>
       </c>
       <c r="D173" s="0">
-        <v>-0.0068818818818818794</v>
+        <v>-0.0034409409409409397</v>
       </c>
     </row>
     <row r="174">
@@ -2512,7 +2512,7 @@
         <v>2</v>
       </c>
       <c r="D174" s="0">
-        <v>-0.029960317460317465</v>
+        <v>-0.014980158730158732</v>
       </c>
     </row>
     <row r="175">
@@ -2526,7 +2526,7 @@
         <v>3</v>
       </c>
       <c r="D175" s="0">
-        <v>-0.0033097006781216964</v>
+        <v>-0.0016548503390608482</v>
       </c>
     </row>
   </sheetData>

--- a/statistics/R/roiHumanBody_Within-PLI_gamma_B/roiHumanBody_Within-PLI_gamma_B.xlsx
+++ b/statistics/R/roiHumanBody_Within-PLI_gamma_B/roiHumanBody_Within-PLI_gamma_B.xlsx
@@ -104,7 +104,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="0">
-        <v>-0.0021036661661661543</v>
+        <v>-0.0042073323323323086</v>
       </c>
     </row>
     <row r="3">
@@ -118,7 +118,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="0">
-        <v>0.0081729998396665032</v>
+        <v>0.016345999679333006</v>
       </c>
     </row>
     <row r="4">
@@ -132,7 +132,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="0">
-        <v>-0.0012236077226589481</v>
+        <v>-0.0024472154453178963</v>
       </c>
     </row>
     <row r="5">
@@ -146,7 +146,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="0">
-        <v>0.014247921390778559</v>
+        <v>0.028495842781557118</v>
       </c>
     </row>
     <row r="6">
@@ -160,7 +160,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="0">
-        <v>0.013826294406651549</v>
+        <v>0.027652588813303097</v>
       </c>
     </row>
     <row r="7">
@@ -174,7 +174,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="0">
-        <v>0.0062042360803970797</v>
+        <v>0.012408472160794159</v>
       </c>
     </row>
     <row r="8">
@@ -188,7 +188,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="0">
-        <v>-0.011081284365598076</v>
+        <v>-0.022162568731196153</v>
       </c>
     </row>
     <row r="9">
@@ -202,7 +202,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.0032390734071406219</v>
+        <v>-0.0064781468142812437</v>
       </c>
     </row>
     <row r="10">
@@ -216,7 +216,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="0">
-        <v>-0.013197501222711308</v>
+        <v>-0.026395002445422616</v>
       </c>
     </row>
     <row r="11">
@@ -230,7 +230,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="0">
-        <v>-0.002023031434796152</v>
+        <v>-0.004046062869592304</v>
       </c>
     </row>
     <row r="12">
@@ -244,7 +244,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="0">
-        <v>-0.012177093059446031</v>
+        <v>-0.024354186118892063</v>
       </c>
     </row>
     <row r="13">
@@ -258,7 +258,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="0">
-        <v>-0.0090454310379122632</v>
+        <v>-0.018090862075824526</v>
       </c>
     </row>
     <row r="14">
@@ -272,7 +272,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="0">
-        <v>-0.015254750548868198</v>
+        <v>-0.030509501097736397</v>
       </c>
     </row>
     <row r="15">
@@ -286,7 +286,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="0">
-        <v>-0.01398237657636156</v>
+        <v>-0.027964753152723121</v>
       </c>
     </row>
     <row r="16">
@@ -300,7 +300,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="0">
-        <v>0.010976515362480274</v>
+        <v>0.021953030724960548</v>
       </c>
     </row>
     <row r="17">
@@ -314,7 +314,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="0">
-        <v>0.0075379867046533669</v>
+        <v>0.015075973409306734</v>
       </c>
     </row>
     <row r="18">
@@ -328,7 +328,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="0">
-        <v>-0.021280051981806387</v>
+        <v>-0.042560103963612775</v>
       </c>
     </row>
     <row r="19">
@@ -342,7 +342,7 @@
         <v>3</v>
       </c>
       <c r="D19" s="0">
-        <v>0.0055843389176722519</v>
+        <v>0.011168677835344504</v>
       </c>
     </row>
     <row r="20">
@@ -356,7 +356,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="0">
-        <v>0.017221302935588642</v>
+        <v>0.034442605871177284</v>
       </c>
     </row>
     <row r="21">
@@ -370,7 +370,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="0">
-        <v>-0.00029394473838919438</v>
+        <v>-0.00058788947677838876</v>
       </c>
     </row>
     <row r="22">
@@ -384,7 +384,7 @@
         <v>3</v>
       </c>
       <c r="D22" s="0">
-        <v>-0.0070068963257817751</v>
+        <v>-0.01401379265156355</v>
       </c>
     </row>
     <row r="23">
@@ -398,7 +398,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="0">
-        <v>0.010612073112073128</v>
+        <v>0.021224146224146256</v>
       </c>
     </row>
     <row r="24">
@@ -412,7 +412,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="0">
-        <v>0.012981928882664182</v>
+        <v>0.025963857765328363</v>
       </c>
     </row>
     <row r="25">
@@ -426,7 +426,7 @@
         <v>3</v>
       </c>
       <c r="D25" s="0">
-        <v>0.012007328183798779</v>
+        <v>0.024014656367597559</v>
       </c>
     </row>
     <row r="26">
@@ -440,7 +440,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="0">
-        <v>-0.0004647504647504741</v>
+        <v>-0.0009295009295009482</v>
       </c>
     </row>
     <row r="27">
@@ -454,7 +454,7 @@
         <v>2</v>
       </c>
       <c r="D27" s="0">
-        <v>0.016785666875272623</v>
+        <v>0.033571333750545246</v>
       </c>
     </row>
     <row r="28">
@@ -468,7 +468,7 @@
         <v>3</v>
       </c>
       <c r="D28" s="0">
-        <v>0.00087610801896514934</v>
+        <v>0.0017522160379302987</v>
       </c>
     </row>
     <row r="29">
@@ -482,7 +482,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="0">
-        <v>0.001151571739807053</v>
+        <v>0.0023031434796141059</v>
       </c>
     </row>
     <row r="30">
@@ -496,7 +496,7 @@
         <v>2</v>
       </c>
       <c r="D30" s="0">
-        <v>-0.0028824743110457129</v>
+        <v>-0.0057649486220914259</v>
       </c>
     </row>
     <row r="31">
@@ -510,7 +510,7 @@
         <v>3</v>
       </c>
       <c r="D31" s="0">
-        <v>0.0001866946311390727</v>
+        <v>0.0003733892622781454</v>
       </c>
     </row>
     <row r="32">
@@ -524,7 +524,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="0">
-        <v>0.00083243823845324805</v>
+        <v>0.0016648764769064961</v>
       </c>
     </row>
     <row r="33">
@@ -538,7 +538,7 @@
         <v>2</v>
       </c>
       <c r="D33" s="0">
-        <v>-0.014878005074083503</v>
+        <v>-0.029756010148167006</v>
       </c>
     </row>
     <row r="34">
@@ -552,7 +552,7 @@
         <v>3</v>
       </c>
       <c r="D34" s="0">
-        <v>-0.012837512837512832</v>
+        <v>-0.025675025675025664</v>
       </c>
     </row>
     <row r="35">
@@ -566,7 +566,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="0">
-        <v>0.0070767195767195701</v>
+        <v>0.01415343915343914</v>
       </c>
     </row>
     <row r="36">
@@ -580,7 +580,7 @@
         <v>2</v>
       </c>
       <c r="D36" s="0">
-        <v>0.0021518329554043869</v>
+        <v>0.0043036659108087738</v>
       </c>
     </row>
     <row r="37">
@@ -594,7 +594,7 @@
         <v>3</v>
       </c>
       <c r="D37" s="0">
-        <v>0.0023484084992021342</v>
+        <v>0.0046968169984042685</v>
       </c>
     </row>
     <row r="38">
@@ -608,7 +608,7 @@
         <v>1</v>
       </c>
       <c r="D38" s="0">
-        <v>0.0033152900799959667</v>
+        <v>0.0066305801599919334</v>
       </c>
     </row>
     <row r="39">
@@ -622,7 +622,7 @@
         <v>2</v>
       </c>
       <c r="D39" s="0">
-        <v>0.0046974630307963644</v>
+        <v>0.0093949260615927288</v>
       </c>
     </row>
     <row r="40">
@@ -636,7 +636,7 @@
         <v>3</v>
       </c>
       <c r="D40" s="0">
-        <v>0.0068982531284118159</v>
+        <v>0.013796506256823632</v>
       </c>
     </row>
     <row r="41">
@@ -650,7 +650,7 @@
         <v>1</v>
       </c>
       <c r="D41" s="0">
-        <v>-0.013371659204992517</v>
+        <v>-0.026743318409985034</v>
       </c>
     </row>
     <row r="42">
@@ -664,7 +664,7 @@
         <v>2</v>
       </c>
       <c r="D42" s="0">
-        <v>-0.006774121059835353</v>
+        <v>-0.013548242119670706</v>
       </c>
     </row>
     <row r="43">
@@ -678,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="D43" s="0">
-        <v>8.2671957671934249e-05</v>
+        <v>0.0001653439153438685</v>
       </c>
     </row>
     <row r="44">
@@ -692,7 +692,7 @@
         <v>1</v>
       </c>
       <c r="D44" s="0">
-        <v>0.0054463283629950093</v>
+        <v>0.010892656725990019</v>
       </c>
     </row>
     <row r="45">
@@ -706,7 +706,7 @@
         <v>2</v>
       </c>
       <c r="D45" s="0">
-        <v>0.0023687611245215151</v>
+        <v>0.0047375222490430302</v>
       </c>
     </row>
     <row r="46">
@@ -720,7 +720,7 @@
         <v>3</v>
       </c>
       <c r="D46" s="0">
-        <v>0.0045624310330192874</v>
+        <v>0.0091248620660385749</v>
       </c>
     </row>
     <row r="47">
@@ -734,7 +734,7 @@
         <v>1</v>
       </c>
       <c r="D47" s="0">
-        <v>-0.0065885613504661211</v>
+        <v>-0.013177122700932242</v>
       </c>
     </row>
     <row r="48">
@@ -748,7 +748,7 @@
         <v>2</v>
       </c>
       <c r="D48" s="0">
-        <v>-0.014243744635901501</v>
+        <v>-0.028487489271803002</v>
       </c>
     </row>
     <row r="49">
@@ -762,7 +762,7 @@
         <v>3</v>
       </c>
       <c r="D49" s="0">
-        <v>0.0022239240075497407</v>
+        <v>0.0044478480150994815</v>
       </c>
     </row>
     <row r="50">
@@ -776,7 +776,7 @@
         <v>1</v>
       </c>
       <c r="D50" s="0">
-        <v>-0.0059045840558445764</v>
+        <v>-0.011809168111689153</v>
       </c>
     </row>
     <row r="51">
@@ -790,7 +790,7 @@
         <v>2</v>
       </c>
       <c r="D51" s="0">
-        <v>-0.0036549707602339249</v>
+        <v>-0.0073099415204678497</v>
       </c>
     </row>
     <row r="52">
@@ -804,7 +804,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="0">
-        <v>0.0046046046046046146</v>
+        <v>0.0092092092092092293</v>
       </c>
     </row>
     <row r="53">
@@ -818,7 +818,7 @@
         <v>1</v>
       </c>
       <c r="D53" s="0">
-        <v>0.018729714107865364</v>
+        <v>0.037459428215730728</v>
       </c>
     </row>
     <row r="54">
@@ -832,7 +832,7 @@
         <v>2</v>
       </c>
       <c r="D54" s="0">
-        <v>0.0066385830274719171</v>
+        <v>0.013277166054943834</v>
       </c>
     </row>
     <row r="55">
@@ -846,7 +846,7 @@
         <v>3</v>
       </c>
       <c r="D55" s="0">
-        <v>-0.0017184651638433301</v>
+        <v>-0.0034369303276866603</v>
       </c>
     </row>
     <row r="56">
@@ -860,7 +860,7 @@
         <v>1</v>
       </c>
       <c r="D56" s="0">
-        <v>0.0018323497490164015</v>
+        <v>0.0036646994980328029</v>
       </c>
     </row>
     <row r="57">
@@ -874,7 +874,7 @@
         <v>2</v>
       </c>
       <c r="D57" s="0">
-        <v>-0.0040378724589250903</v>
+        <v>-0.0080757449178501806</v>
       </c>
     </row>
     <row r="58">
@@ -888,7 +888,7 @@
         <v>3</v>
       </c>
       <c r="D58" s="0">
-        <v>-0.015658515658515643</v>
+        <v>-0.031317031317031285</v>
       </c>
     </row>
     <row r="59">
@@ -902,7 +902,7 @@
         <v>1</v>
       </c>
       <c r="D59" s="0">
-        <v>-0.0027858215358215338</v>
+        <v>-0.0055716430716430676</v>
       </c>
     </row>
     <row r="60">
@@ -916,7 +916,7 @@
         <v>2</v>
       </c>
       <c r="D60" s="0">
-        <v>-0.0096230158730158943</v>
+        <v>-0.019246031746031789</v>
       </c>
     </row>
     <row r="61">
@@ -930,7 +930,7 @@
         <v>3</v>
       </c>
       <c r="D61" s="0">
-        <v>-0.012153484375706611</v>
+        <v>-0.024306968751413222</v>
       </c>
     </row>
     <row r="62">
@@ -944,7 +944,7 @@
         <v>1</v>
       </c>
       <c r="D62" s="0">
-        <v>-0.011241601153881856</v>
+        <v>-0.022483202307763711</v>
       </c>
     </row>
     <row r="63">
@@ -958,7 +958,7 @@
         <v>2</v>
       </c>
       <c r="D63" s="0">
-        <v>0.013163168864923261</v>
+        <v>0.026326337729846522</v>
       </c>
     </row>
     <row r="64">
@@ -972,7 +972,7 @@
         <v>3</v>
       </c>
       <c r="D64" s="0">
-        <v>0.0048436191293334402</v>
+        <v>0.0096872382586668804</v>
       </c>
     </row>
     <row r="65">
@@ -986,7 +986,7 @@
         <v>1</v>
       </c>
       <c r="D65" s="0">
-        <v>0.0065341926244181989</v>
+        <v>0.013068385248836398</v>
       </c>
     </row>
     <row r="66">
@@ -1000,7 +1000,7 @@
         <v>2</v>
       </c>
       <c r="D66" s="0">
-        <v>0.014735913858720862</v>
+        <v>0.029471827717441723</v>
       </c>
     </row>
     <row r="67">
@@ -1014,7 +1014,7 @@
         <v>3</v>
       </c>
       <c r="D67" s="0">
-        <v>0.0022724189390855992</v>
+        <v>0.0045448378781711984</v>
       </c>
     </row>
     <row r="68">
@@ -1028,7 +1028,7 @@
         <v>1</v>
       </c>
       <c r="D68" s="0">
-        <v>0.00021153310626997879</v>
+        <v>0.00042306621253995758</v>
       </c>
     </row>
     <row r="69">
@@ -1042,7 +1042,7 @@
         <v>2</v>
       </c>
       <c r="D69" s="0">
-        <v>-0.00054161304161304269</v>
+        <v>-0.0010832260832260854</v>
       </c>
     </row>
     <row r="70">
@@ -1056,7 +1056,7 @@
         <v>3</v>
       </c>
       <c r="D70" s="0">
-        <v>0.0015020189362294489</v>
+        <v>0.0030040378724588979</v>
       </c>
     </row>
     <row r="71">
@@ -1070,7 +1070,7 @@
         <v>1</v>
       </c>
       <c r="D71" s="0">
-        <v>-0.018551587301587305</v>
+        <v>-0.03710317460317461</v>
       </c>
     </row>
     <row r="72">
@@ -1084,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="D72" s="0">
-        <v>0.0088353005019671388</v>
+        <v>0.017670601003934278</v>
       </c>
     </row>
     <row r="73">
@@ -1098,7 +1098,7 @@
         <v>3</v>
       </c>
       <c r="D73" s="0">
-        <v>0.0074465008675535099</v>
+        <v>0.01489300173510702</v>
       </c>
     </row>
     <row r="74">
@@ -1112,7 +1112,7 @@
         <v>1</v>
       </c>
       <c r="D74" s="0">
-        <v>-0.00036953052826069199</v>
+        <v>-0.00073906105652138399</v>
       </c>
     </row>
     <row r="75">
@@ -1126,7 +1126,7 @@
         <v>2</v>
       </c>
       <c r="D75" s="0">
-        <v>-0.004078483245149922</v>
+        <v>-0.008156966490299844</v>
       </c>
     </row>
     <row r="76">
@@ -1140,7 +1140,7 @@
         <v>3</v>
       </c>
       <c r="D76" s="0">
-        <v>-0.012714755571898412</v>
+        <v>-0.025429511143796824</v>
       </c>
     </row>
     <row r="77">
@@ -1154,7 +1154,7 @@
         <v>1</v>
       </c>
       <c r="D77" s="0">
-        <v>0.0013784793196558037</v>
+        <v>0.0027569586393116075</v>
       </c>
     </row>
     <row r="78">
@@ -1168,7 +1168,7 @@
         <v>2</v>
       </c>
       <c r="D78" s="0">
-        <v>-0.010045760045760063</v>
+        <v>-0.020091520091520126</v>
       </c>
     </row>
     <row r="79">
@@ -1182,7 +1182,7 @@
         <v>3</v>
       </c>
       <c r="D79" s="0">
-        <v>-0.0074822297044519342</v>
+        <v>-0.014964459408903868</v>
       </c>
     </row>
     <row r="80">
@@ -1196,7 +1196,7 @@
         <v>1</v>
       </c>
       <c r="D80" s="0">
-        <v>0.014179764179764173</v>
+        <v>0.028359528359528346</v>
       </c>
     </row>
     <row r="81">
@@ -1210,7 +1210,7 @@
         <v>2</v>
       </c>
       <c r="D81" s="0">
-        <v>-0.016877989100211287</v>
+        <v>-0.033755978200422573</v>
       </c>
     </row>
     <row r="82">
@@ -1224,7 +1224,7 @@
         <v>3</v>
       </c>
       <c r="D82" s="0">
-        <v>-0.0050284441261884694</v>
+        <v>-0.010056888252376939</v>
       </c>
     </row>
     <row r="83">
@@ -1238,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="D83" s="0">
-        <v>-0.013415671310408141</v>
+        <v>-0.026831342620816281</v>
       </c>
     </row>
     <row r="84">
@@ -1252,7 +1252,7 @@
         <v>2</v>
       </c>
       <c r="D84" s="0">
-        <v>0.0079659810051966873</v>
+        <v>0.015931962010393375</v>
       </c>
     </row>
     <row r="85">
@@ -1266,7 +1266,7 @@
         <v>3</v>
       </c>
       <c r="D85" s="0">
-        <v>-0.00078299125918174228</v>
+        <v>-0.0015659825183634846</v>
       </c>
     </row>
     <row r="86">
@@ -1280,7 +1280,7 @@
         <v>1</v>
       </c>
       <c r="D86" s="0">
-        <v>0.010033843367176665</v>
+        <v>0.020067686734353329</v>
       </c>
     </row>
     <row r="87">
@@ -1294,7 +1294,7 @@
         <v>2</v>
       </c>
       <c r="D87" s="0">
-        <v>0.02946080478975216</v>
+        <v>0.058921609579504319</v>
       </c>
     </row>
     <row r="88">
@@ -1308,7 +1308,7 @@
         <v>3</v>
       </c>
       <c r="D88" s="0">
-        <v>-0.0055320888654221689</v>
+        <v>-0.011064177730844338</v>
       </c>
     </row>
     <row r="89">
@@ -1322,7 +1322,7 @@
         <v>1</v>
       </c>
       <c r="D89" s="0">
-        <v>0.013888888888888881</v>
+        <v>0.027777777777777762</v>
       </c>
     </row>
     <row r="90">
@@ -1336,7 +1336,7 @@
         <v>2</v>
       </c>
       <c r="D90" s="0">
-        <v>-0.0051761718428385145</v>
+        <v>-0.010352343685677029</v>
       </c>
     </row>
     <row r="91">
@@ -1350,7 +1350,7 @@
         <v>3</v>
       </c>
       <c r="D91" s="0">
-        <v>0.008271518483936785</v>
+        <v>0.01654303696787357</v>
       </c>
     </row>
     <row r="92">
@@ -1364,7 +1364,7 @@
         <v>1</v>
       </c>
       <c r="D92" s="0">
-        <v>0.012235449735449738</v>
+        <v>0.024470899470899476</v>
       </c>
     </row>
     <row r="93">
@@ -1378,7 +1378,7 @@
         <v>2</v>
       </c>
       <c r="D93" s="0">
-        <v>0.0058051875721048668</v>
+        <v>0.011610375144209734</v>
       </c>
     </row>
     <row r="94">
@@ -1392,7 +1392,7 @@
         <v>3</v>
       </c>
       <c r="D94" s="0">
-        <v>-0.027777777777777748</v>
+        <v>-0.055555555555555497</v>
       </c>
     </row>
     <row r="95">
@@ -1406,7 +1406,7 @@
         <v>1</v>
       </c>
       <c r="D95" s="0">
-        <v>0.0038014204680871383</v>
+        <v>0.0076028409361742766</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>2</v>
       </c>
       <c r="D96" s="0">
-        <v>-0.004397254397254427</v>
+        <v>-0.008794508794508854</v>
       </c>
     </row>
     <row r="97">
@@ -1434,7 +1434,7 @@
         <v>3</v>
       </c>
       <c r="D97" s="0">
-        <v>-0.0067110761555205928</v>
+        <v>-0.013422152311041186</v>
       </c>
     </row>
     <row r="98">
@@ -1448,7 +1448,7 @@
         <v>1</v>
       </c>
       <c r="D98" s="0">
-        <v>-0.0091664346050311096</v>
+        <v>-0.018332869210062219</v>
       </c>
     </row>
     <row r="99">
@@ -1462,7 +1462,7 @@
         <v>2</v>
       </c>
       <c r="D99" s="0">
-        <v>0.0064347376377451582</v>
+        <v>0.012869475275490316</v>
       </c>
     </row>
     <row r="100">
@@ -1476,7 +1476,7 @@
         <v>3</v>
       </c>
       <c r="D100" s="0">
-        <v>0.022300895666908752</v>
+        <v>0.044601791333817503</v>
       </c>
     </row>
     <row r="101">
@@ -1490,7 +1490,7 @@
         <v>1</v>
       </c>
       <c r="D101" s="0">
-        <v>-0.015366206542677112</v>
+        <v>-0.030732413085354224</v>
       </c>
     </row>
     <row r="102">
@@ -1504,7 +1504,7 @@
         <v>2</v>
       </c>
       <c r="D102" s="0">
-        <v>-0.0020177206685143001</v>
+        <v>-0.0040354413370286002</v>
       </c>
     </row>
     <row r="103">
@@ -1518,7 +1518,7 @@
         <v>3</v>
       </c>
       <c r="D103" s="0">
-        <v>-0.020705257411606635</v>
+        <v>-0.041410514823213271</v>
       </c>
     </row>
     <row r="104">
@@ -1532,7 +1532,7 @@
         <v>1</v>
       </c>
       <c r="D104" s="0">
-        <v>0.011995044931552866</v>
+        <v>0.023990089863105732</v>
       </c>
     </row>
     <row r="105">
@@ -1546,7 +1546,7 @@
         <v>2</v>
       </c>
       <c r="D105" s="0">
-        <v>-0.0079848541105850823</v>
+        <v>-0.015969708221170165</v>
       </c>
     </row>
     <row r="106">
@@ -1560,7 +1560,7 @@
         <v>3</v>
       </c>
       <c r="D106" s="0">
-        <v>0.015758814369925482</v>
+        <v>0.031517628739850964</v>
       </c>
     </row>
     <row r="107">
@@ -1574,7 +1574,7 @@
         <v>1</v>
       </c>
       <c r="D107" s="0">
-        <v>-0.0039928252002555398</v>
+        <v>-0.0079856504005110795</v>
       </c>
     </row>
     <row r="108">
@@ -1588,7 +1588,7 @@
         <v>2</v>
       </c>
       <c r="D108" s="0">
-        <v>0.010552234361758173</v>
+        <v>0.021104468723516345</v>
       </c>
     </row>
     <row r="109">
@@ -1602,7 +1602,7 @@
         <v>3</v>
       </c>
       <c r="D109" s="0">
-        <v>-0.0088325652841781815</v>
+        <v>-0.017665130568356363</v>
       </c>
     </row>
     <row r="110">
@@ -1616,7 +1616,7 @@
         <v>1</v>
       </c>
       <c r="D110" s="0">
-        <v>0.0051979766265480704</v>
+        <v>0.010395953253096141</v>
       </c>
     </row>
     <row r="111">
@@ -1630,7 +1630,7 @@
         <v>2</v>
       </c>
       <c r="D111" s="0">
-        <v>0.010629990893148797</v>
+        <v>0.021259981786297594</v>
       </c>
     </row>
     <row r="112">
@@ -1644,7 +1644,7 @@
         <v>3</v>
       </c>
       <c r="D112" s="0">
-        <v>0.017153371320037976</v>
+        <v>0.034306742640075952</v>
       </c>
     </row>
     <row r="113">
@@ -1658,7 +1658,7 @@
         <v>1</v>
       </c>
       <c r="D113" s="0">
-        <v>0.0011601506699546044</v>
+        <v>0.0023203013399092087</v>
       </c>
     </row>
     <row r="114">
@@ -1672,7 +1672,7 @@
         <v>2</v>
       </c>
       <c r="D114" s="0">
-        <v>0.0030185863519196984</v>
+        <v>0.0060371727038393969</v>
       </c>
     </row>
     <row r="115">
@@ -1686,7 +1686,7 @@
         <v>3</v>
       </c>
       <c r="D115" s="0">
-        <v>-0.0060001778489173485</v>
+        <v>-0.012000355697834697</v>
       </c>
     </row>
     <row r="116">
@@ -1700,7 +1700,7 @@
         <v>1</v>
       </c>
       <c r="D116" s="0">
-        <v>-0.016676933343599987</v>
+        <v>-0.033353866687199973</v>
       </c>
     </row>
     <row r="117">
@@ -1714,7 +1714,7 @@
         <v>2</v>
       </c>
       <c r="D117" s="0">
-        <v>-0.0015557055030739342</v>
+        <v>-0.0031114110061478684</v>
       </c>
     </row>
     <row r="118">
@@ -1728,7 +1728,7 @@
         <v>3</v>
       </c>
       <c r="D118" s="0">
-        <v>0.01242451242451241</v>
+        <v>0.02484902484902482</v>
       </c>
     </row>
     <row r="119">
@@ -1742,7 +1742,7 @@
         <v>1</v>
       </c>
       <c r="D119" s="0">
-        <v>0.00089790002070705421</v>
+        <v>0.0017958000414141084</v>
       </c>
     </row>
     <row r="120">
@@ -1756,7 +1756,7 @@
         <v>2</v>
       </c>
       <c r="D120" s="0">
-        <v>0.0023565859092174735</v>
+        <v>0.0047131718184349469</v>
       </c>
     </row>
     <row r="121">
@@ -1770,7 +1770,7 @@
         <v>3</v>
       </c>
       <c r="D121" s="0">
-        <v>-0.0051269217935884515</v>
+        <v>-0.010253843587176903</v>
       </c>
     </row>
     <row r="122">
@@ -1784,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="D122" s="0">
-        <v>0.0071741909977204033</v>
+        <v>0.014348381995440807</v>
       </c>
     </row>
     <row r="123">
@@ -1798,7 +1798,7 @@
         <v>2</v>
       </c>
       <c r="D123" s="0">
-        <v>-0.0019244194591416866</v>
+        <v>-0.0038488389182833732</v>
       </c>
     </row>
     <row r="124">
@@ -1812,7 +1812,7 @@
         <v>3</v>
       </c>
       <c r="D124" s="0">
-        <v>0.0066851551226551134</v>
+        <v>0.013370310245310227</v>
       </c>
     </row>
     <row r="125">
@@ -1826,7 +1826,7 @@
         <v>1</v>
       </c>
       <c r="D125" s="0">
-        <v>-0.0037819221255753696</v>
+        <v>-0.0075638442511507392</v>
       </c>
     </row>
     <row r="126">
@@ -1840,7 +1840,7 @@
         <v>2</v>
       </c>
       <c r="D126" s="0">
-        <v>0.0026455026455026454</v>
+        <v>0.0052910052910052907</v>
       </c>
     </row>
     <row r="127">
@@ -1854,7 +1854,7 @@
         <v>3</v>
       </c>
       <c r="D127" s="0">
-        <v>-0.019259338703783137</v>
+        <v>-0.038518677407566274</v>
       </c>
     </row>
     <row r="128">
@@ -1868,7 +1868,7 @@
         <v>1</v>
       </c>
       <c r="D128" s="0">
-        <v>-0.0040794763016984981</v>
+        <v>-0.0081589526033969961</v>
       </c>
     </row>
     <row r="129">
@@ -1882,7 +1882,7 @@
         <v>2</v>
       </c>
       <c r="D129" s="0">
-        <v>-0.0043706972278400869</v>
+        <v>-0.0087413944556801737</v>
       </c>
     </row>
     <row r="130">
@@ -1896,7 +1896,7 @@
         <v>3</v>
       </c>
       <c r="D130" s="0">
-        <v>-0.007086974192237333</v>
+        <v>-0.014173948384474666</v>
       </c>
     </row>
     <row r="131">
@@ -1910,7 +1910,7 @@
         <v>1</v>
       </c>
       <c r="D131" s="0">
-        <v>0.0070042570042570251</v>
+        <v>0.01400851400851405</v>
       </c>
     </row>
     <row r="132">
@@ -1924,7 +1924,7 @@
         <v>2</v>
       </c>
       <c r="D132" s="0">
-        <v>0.0067511120142698944</v>
+        <v>0.013502224028539789</v>
       </c>
     </row>
     <row r="133">
@@ -1938,7 +1938,7 @@
         <v>3</v>
       </c>
       <c r="D133" s="0">
-        <v>-0.0046004512916277551</v>
+        <v>-0.0092009025832555102</v>
       </c>
     </row>
     <row r="134">
@@ -1952,7 +1952,7 @@
         <v>1</v>
       </c>
       <c r="D134" s="0">
-        <v>0.0026812526812526744</v>
+        <v>0.0053625053625053487</v>
       </c>
     </row>
     <row r="135">
@@ -1966,7 +1966,7 @@
         <v>2</v>
       </c>
       <c r="D135" s="0">
-        <v>-0.0019667223614592069</v>
+        <v>-0.0039334447229184138</v>
       </c>
     </row>
     <row r="136">
@@ -1980,7 +1980,7 @@
         <v>3</v>
       </c>
       <c r="D136" s="0">
-        <v>0.0064780898114231433</v>
+        <v>0.012956179622846287</v>
       </c>
     </row>
     <row r="137">
@@ -1994,7 +1994,7 @@
         <v>1</v>
       </c>
       <c r="D137" s="0">
-        <v>-0.0051517683096630185</v>
+        <v>-0.010303536619326037</v>
       </c>
     </row>
     <row r="138">
@@ -2008,7 +2008,7 @@
         <v>2</v>
       </c>
       <c r="D138" s="0">
-        <v>-0.0084907782276203506</v>
+        <v>-0.016981556455240701</v>
       </c>
     </row>
     <row r="139">
@@ -2022,7 +2022,7 @@
         <v>3</v>
       </c>
       <c r="D139" s="0">
-        <v>0.011213039721811653</v>
+        <v>0.022426079443623306</v>
       </c>
     </row>
     <row r="140">
@@ -2036,7 +2036,7 @@
         <v>1</v>
       </c>
       <c r="D140" s="0">
-        <v>-0.00072856107338867271</v>
+        <v>-0.0014571221467773454</v>
       </c>
     </row>
     <row r="141">
@@ -2050,7 +2050,7 @@
         <v>2</v>
       </c>
       <c r="D141" s="0">
-        <v>0.0056842556842556791</v>
+        <v>0.011368511368511358</v>
       </c>
     </row>
     <row r="142">
@@ -2064,7 +2064,7 @@
         <v>3</v>
       </c>
       <c r="D142" s="0">
-        <v>0.0028296694963361735</v>
+        <v>0.005659338992672347</v>
       </c>
     </row>
     <row r="143">
@@ -2078,7 +2078,7 @@
         <v>1</v>
       </c>
       <c r="D143" s="0">
-        <v>-0.0013227513227513157</v>
+        <v>-0.0026455026455026315</v>
       </c>
     </row>
     <row r="144">
@@ -2092,7 +2092,7 @@
         <v>2</v>
       </c>
       <c r="D144" s="0">
-        <v>-0.017093840903364708</v>
+        <v>-0.034187681806729417</v>
       </c>
     </row>
     <row r="145">
@@ -2106,7 +2106,7 @@
         <v>3</v>
       </c>
       <c r="D145" s="0">
-        <v>0.0049078095953096063</v>
+        <v>0.0098156191906192125</v>
       </c>
     </row>
     <row r="146">
@@ -2120,7 +2120,7 @@
         <v>1</v>
       </c>
       <c r="D146" s="0">
-        <v>-0.0070662768031188872</v>
+        <v>-0.014132553606237774</v>
       </c>
     </row>
     <row r="147">
@@ -2134,7 +2134,7 @@
         <v>2</v>
       </c>
       <c r="D147" s="0">
-        <v>0.011966047680333394</v>
+        <v>0.023932095360666789</v>
       </c>
     </row>
     <row r="148">
@@ -2148,7 +2148,7 @@
         <v>3</v>
       </c>
       <c r="D148" s="0">
-        <v>0.0018202567222175281</v>
+        <v>0.0036405134444350562</v>
       </c>
     </row>
     <row r="149">
@@ -2162,7 +2162,7 @@
         <v>1</v>
       </c>
       <c r="D149" s="0">
-        <v>0.0021045918367346844</v>
+        <v>0.0042091836734693688</v>
       </c>
     </row>
     <row r="150">
@@ -2176,7 +2176,7 @@
         <v>2</v>
       </c>
       <c r="D150" s="0">
-        <v>-0.0030242391353502429</v>
+        <v>-0.0060484782707004858</v>
       </c>
     </row>
     <row r="151">
@@ -2190,7 +2190,7 @@
         <v>3</v>
       </c>
       <c r="D151" s="0">
-        <v>-0.0023342670401493848</v>
+        <v>-0.0046685340802987696</v>
       </c>
     </row>
     <row r="152">
@@ -2204,7 +2204,7 @@
         <v>1</v>
       </c>
       <c r="D152" s="0">
-        <v>-0.010673050146734364</v>
+        <v>-0.021346100293468728</v>
       </c>
     </row>
     <row r="153">
@@ -2218,7 +2218,7 @@
         <v>2</v>
       </c>
       <c r="D153" s="0">
-        <v>-0.0030864197530864196</v>
+        <v>-0.0061728395061728392</v>
       </c>
     </row>
     <row r="154">
@@ -2232,7 +2232,7 @@
         <v>3</v>
       </c>
       <c r="D154" s="0">
-        <v>0.0046883618312189776</v>
+        <v>0.0093767236624379552</v>
       </c>
     </row>
     <row r="155">
@@ -2246,7 +2246,7 @@
         <v>1</v>
       </c>
       <c r="D155" s="0">
-        <v>-0.0041112541112541118</v>
+        <v>-0.0082225082225082236</v>
       </c>
     </row>
     <row r="156">
@@ -2260,7 +2260,7 @@
         <v>2</v>
       </c>
       <c r="D156" s="0">
-        <v>-0.0079704246370913001</v>
+        <v>-0.0159408492741826</v>
       </c>
     </row>
     <row r="157">
@@ -2274,7 +2274,7 @@
         <v>3</v>
       </c>
       <c r="D157" s="0">
-        <v>-0.010439010439010458</v>
+        <v>-0.020878020878020917</v>
       </c>
     </row>
     <row r="158">
@@ -2288,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="D158" s="0">
-        <v>-0.0092939027462836873</v>
+        <v>-0.018587805492567375</v>
       </c>
     </row>
     <row r="159">
@@ -2302,7 +2302,7 @@
         <v>2</v>
       </c>
       <c r="D159" s="0">
-        <v>0.0045944562073594319</v>
+        <v>0.0091889124147188639</v>
       </c>
     </row>
     <row r="160">
@@ -2316,7 +2316,7 @@
         <v>3</v>
       </c>
       <c r="D160" s="0">
-        <v>0.0073684795907017972</v>
+        <v>0.014736959181403594</v>
       </c>
     </row>
     <row r="161">
@@ -2330,7 +2330,7 @@
         <v>1</v>
       </c>
       <c r="D161" s="0">
-        <v>-0.0025179516250944806</v>
+        <v>-0.0050359032501889611</v>
       </c>
     </row>
     <row r="162">
@@ -2344,7 +2344,7 @@
         <v>2</v>
       </c>
       <c r="D162" s="0">
-        <v>0.0020725135932509395</v>
+        <v>0.004145027186501879</v>
       </c>
     </row>
     <row r="163">
@@ -2358,7 +2358,7 @@
         <v>3</v>
       </c>
       <c r="D163" s="0">
-        <v>-0.0059912854030501062</v>
+        <v>-0.011982570806100212</v>
       </c>
     </row>
     <row r="164">
@@ -2372,7 +2372,7 @@
         <v>1</v>
       </c>
       <c r="D164" s="0">
-        <v>-0.0022626009468114591</v>
+        <v>-0.0045252018936229182</v>
       </c>
     </row>
     <row r="165">
@@ -2386,7 +2386,7 @@
         <v>2</v>
       </c>
       <c r="D165" s="0">
-        <v>0.0079915079915079887</v>
+        <v>0.015983015983015977</v>
       </c>
     </row>
     <row r="166">
@@ -2400,7 +2400,7 @@
         <v>3</v>
       </c>
       <c r="D166" s="0">
-        <v>0.0070963820963820881</v>
+        <v>0.014192764192764176</v>
       </c>
     </row>
     <row r="167">
@@ -2414,7 +2414,7 @@
         <v>1</v>
       </c>
       <c r="D167" s="0">
-        <v>-0.013981031008894786</v>
+        <v>-0.027962062017789571</v>
       </c>
     </row>
     <row r="168">
@@ -2428,7 +2428,7 @@
         <v>2</v>
       </c>
       <c r="D168" s="0">
-        <v>-0.0044227901370758466</v>
+        <v>-0.0088455802741516931</v>
       </c>
     </row>
     <row r="169">
@@ -2442,7 +2442,7 @@
         <v>3</v>
       </c>
       <c r="D169" s="0">
-        <v>0.0049692549692549742</v>
+        <v>0.0099385099385099485</v>
       </c>
     </row>
     <row r="170">
@@ -2456,7 +2456,7 @@
         <v>1</v>
       </c>
       <c r="D170" s="0">
-        <v>0.0075521950521950793</v>
+        <v>0.015104390104390159</v>
       </c>
     </row>
     <row r="171">
@@ -2470,7 +2470,7 @@
         <v>2</v>
       </c>
       <c r="D171" s="0">
-        <v>0.0032729157729157604</v>
+        <v>0.0065458315458315208</v>
       </c>
     </row>
     <row r="172">
@@ -2484,7 +2484,7 @@
         <v>3</v>
       </c>
       <c r="D172" s="0">
-        <v>-0.0006196672863339539</v>
+        <v>-0.0012393345726679078</v>
       </c>
     </row>
     <row r="173">
@@ -2498,7 +2498,7 @@
         <v>1</v>
       </c>
       <c r="D173" s="0">
-        <v>-0.0034409409409409397</v>
+        <v>-0.0068818818818818794</v>
       </c>
     </row>
     <row r="174">
@@ -2512,7 +2512,7 @@
         <v>2</v>
       </c>
       <c r="D174" s="0">
-        <v>-0.014980158730158732</v>
+        <v>-0.029960317460317465</v>
       </c>
     </row>
     <row r="175">
@@ -2526,7 +2526,7 @@
         <v>3</v>
       </c>
       <c r="D175" s="0">
-        <v>-0.0016548503390608482</v>
+        <v>-0.0033097006781216964</v>
       </c>
     </row>
   </sheetData>
